--- a/biology/Zoologie/Cicadellini/Cicadellini.xlsx
+++ b/biology/Zoologie/Cicadellini/Cicadellini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cicadellini sont une tribu de cicadelles de la famille des Cicadellidae, sous-famille des Cicadellinae. Elle regroupe plusieurs milliers d'espèces décrites dans près de 300 genres[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cicadellini sont une tribu de cicadelles de la famille des Cicadellidae, sous-famille des Cicadellinae. Elle regroupe plusieurs milliers d'espèces décrites dans près de 300 genres.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tribu des Cicadellini est attribuée, en 1825, à l'entomologiste français Pierre-André Latreille (1762-1833).
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (13 mai 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (13 mai 2023) :
 Abothrogo Yang, 1980
 Abothrogonia Yang, 1980
 Acopsis Amyot &amp; Serville, 1843
@@ -850,7 +866,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Latreille, Familles naturelles du règne animal, exposées succinctement et dans un ordre analytique, avec l’indication de leurs genres, Paris, J-B. Baillière, 1825, 570 p. (DOI 10.5962/bhl.title.34914, lire en ligne).</t>
         </is>
